--- a/doc/Rule.xlsx
+++ b/doc/Rule.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azhidkov\Documents\NetBeansProjects\Maps\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\genetic\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="10530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Карта" sheetId="1" r:id="rId1"/>
-    <sheet name="Бактерия" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
+    <sheet name="Бактерия" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Тип поверхности</t>
   </si>
@@ -93,13 +95,262 @@
     <t>содержит энергию</t>
   </si>
   <si>
-    <t>Способности</t>
+    <t>Кодон</t>
+  </si>
+  <si>
+    <t>направление</t>
+  </si>
+  <si>
+    <t>дистанция</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>LOOK</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>nG</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>CLONE</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Выпронить движение</t>
+  </si>
+  <si>
+    <t>количество клеток, на которое прыгает бакт</t>
+  </si>
+  <si>
+    <t>Следующий кодон</t>
+  </si>
+  <si>
+    <t>0-вправо</t>
+  </si>
+  <si>
+    <t>1-влево</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>кодон больше текущего</t>
+  </si>
+  <si>
+    <t>посмотреть что находиться в клетке, используя датчик</t>
+  </si>
+  <si>
+    <t>тип сенсора, что будем смотреть, поверхность или объект</t>
+  </si>
+  <si>
+    <t>0-смотрим поверхность</t>
+  </si>
+  <si>
+    <t>1-смотрим объект</t>
+  </si>
+  <si>
+    <t>0-n</t>
+  </si>
+  <si>
+    <t>результат, который ожидаем, если совпадает то переходим на кодон G, в противном случае на nG</t>
+  </si>
+  <si>
+    <t>0-снег</t>
+  </si>
+  <si>
+    <t>1-земля</t>
+  </si>
+  <si>
+    <t>2-вода</t>
+  </si>
+  <si>
+    <t>0-пусто</t>
+  </si>
+  <si>
+    <t>1-свет</t>
+  </si>
+  <si>
+    <t>2-химия</t>
+  </si>
+  <si>
+    <t>3-кислота</t>
+  </si>
+  <si>
+    <t>2-смотрим бактерию</t>
+  </si>
+  <si>
+    <t>0-бактерии нет</t>
+  </si>
+  <si>
+    <t>1-бактерия есть</t>
+  </si>
+  <si>
+    <t>съесть то, что под тобой, зависит от способности</t>
+  </si>
+  <si>
+    <t>породить потомка</t>
+  </si>
+  <si>
+    <t>процент энергии, который дадим потомку</t>
+  </si>
+  <si>
+    <t>1-20%</t>
+  </si>
+  <si>
+    <t>0-10%</t>
+  </si>
+  <si>
+    <t>2-30%</t>
+  </si>
+  <si>
+    <t>3-40%</t>
+  </si>
+  <si>
+    <t>4-50%</t>
+  </si>
+  <si>
+    <t>5-60%</t>
+  </si>
+  <si>
+    <t>задействовать мутацию для клона</t>
+  </si>
+  <si>
+    <t>0-нет мутации, полная копия</t>
+  </si>
+  <si>
+    <t>1%-5%</t>
+  </si>
+  <si>
+    <t>Повернуться</t>
+  </si>
+  <si>
+    <t>2-развернуться</t>
+  </si>
+  <si>
+    <t>объем вещество</t>
+  </si>
+  <si>
+    <t>тип вещества</t>
+  </si>
+  <si>
+    <t>0-свет</t>
+  </si>
+  <si>
+    <t>1-химия</t>
+  </si>
+  <si>
+    <t>3-сахар</t>
+  </si>
+  <si>
+    <t>4-кислота</t>
+  </si>
+  <si>
+    <t>Выделить вещество, остается позади бактерии</t>
+  </si>
+  <si>
+    <t>Отрастить датчик</t>
+  </si>
+  <si>
+    <t>координаты</t>
+  </si>
+  <si>
+    <t>MOVES</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t>Перейти на сенсор с номером ids</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>Зациклить выполнение участка ДНК</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>Кодон возврата, должен быть ниже теущего</t>
+  </si>
+  <si>
+    <t>Кодон дальнейшего перехода</t>
+  </si>
+  <si>
+    <t>APOP</t>
+  </si>
+  <si>
+    <t>Выполнить апоптоз</t>
+  </si>
+  <si>
+    <t>ENRG</t>
+  </si>
+  <si>
+    <t>Выполнить проверку энергии</t>
+  </si>
+  <si>
+    <t>если результат близок то перейти к кодону G</t>
+  </si>
+  <si>
+    <t>координат/номер сенсора</t>
+  </si>
+  <si>
+    <t>Код</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,11 +404,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE26D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -166,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -174,12 +480,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDE26D5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,7 +776,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,26 +915,719 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>A1^3</f>
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>A1^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>A2^3</f>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C10" si="0">A2^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>A3^3</f>
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>A4^3</f>
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="1">A5^3</f>
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/doc/Rule.xlsx
+++ b/doc/Rule.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Бактерия" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="136">
   <si>
     <t>Тип поверхности</t>
   </si>
@@ -305,9 +304,6 @@
     <t>MOVES</t>
   </si>
   <si>
-    <t>ids</t>
-  </si>
-  <si>
     <t>Перейти на сенсор с номером ids</t>
   </si>
   <si>
@@ -345,6 +341,99 @@
   </si>
   <si>
     <t>Код</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>-1,0</t>
+  </si>
+  <si>
+    <t>-2,0</t>
+  </si>
+  <si>
+    <t>-3,0</t>
+  </si>
+  <si>
+    <t>-4,0</t>
+  </si>
+  <si>
+    <t>0,-1</t>
+  </si>
+  <si>
+    <t>0,-2</t>
+  </si>
+  <si>
+    <t>0,-3</t>
+  </si>
+  <si>
+    <t>0,-4</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>-1,-1</t>
+  </si>
+  <si>
+    <t>-4,-4</t>
+  </si>
+  <si>
+    <t>-1,1</t>
+  </si>
+  <si>
+    <t>-2,2</t>
+  </si>
+  <si>
+    <t>-3,3</t>
+  </si>
+  <si>
+    <t>-4,4</t>
+  </si>
+  <si>
+    <t>1,-1</t>
+  </si>
+  <si>
+    <t>2,-2</t>
+  </si>
+  <si>
+    <t>3,-3</t>
+  </si>
+  <si>
+    <t>4,-4</t>
   </si>
 </sst>
 </file>
@@ -472,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -488,6 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -945,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C10" si="0">A2^2</f>
+        <f t="shared" ref="C2:C7" si="0">A2^2</f>
         <v>4</v>
       </c>
     </row>
@@ -980,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B10" si="1">A5^3</f>
+        <f t="shared" ref="B5:B7" si="1">A5^3</f>
         <v>125</v>
       </c>
       <c r="C5">
@@ -1021,18 +1111,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1043,10 +1142,10 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1060,21 +1159,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1084,8 +1189,23 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1098,8 +1218,23 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -1118,8 +1253,23 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -1138,8 +1288,23 @@
       <c r="H7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1155,18 +1320,66 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>-16</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>31</v>
@@ -1180,10 +1393,23 @@
       <c r="H10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>32</v>
@@ -1197,8 +1423,21 @@
       <c r="H11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
@@ -1206,7 +1445,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>32</v>
@@ -1219,6 +1458,26 @@
       </c>
       <c r="H12">
         <v>10</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>-16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,7 +1543,7 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
@@ -1563,12 +1822,12 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
         <v>31</v>
@@ -1582,31 +1841,31 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" t="s">
         <v>96</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>97</v>
-      </c>
-      <c r="D75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
         <v>32</v>
@@ -1620,10 +1879,10 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
         <v>102</v>
-      </c>
-      <c r="B81" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Rule.xlsx
+++ b/doc/Rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Тип поверхности</t>
   </si>
@@ -346,94 +346,25 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>-1,0</t>
-  </si>
-  <si>
-    <t>-2,0</t>
-  </si>
-  <si>
-    <t>-3,0</t>
-  </si>
-  <si>
-    <t>-4,0</t>
-  </si>
-  <si>
-    <t>0,-1</t>
-  </si>
-  <si>
-    <t>0,-2</t>
-  </si>
-  <si>
-    <t>0,-3</t>
-  </si>
-  <si>
-    <t>0,-4</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>-1,-1</t>
-  </si>
-  <si>
-    <t>-4,-4</t>
-  </si>
-  <si>
-    <t>-1,1</t>
-  </si>
-  <si>
-    <t>-2,2</t>
-  </si>
-  <si>
-    <t>-3,3</t>
-  </si>
-  <si>
-    <t>-4,4</t>
-  </si>
-  <si>
-    <t>1,-1</t>
-  </si>
-  <si>
-    <t>2,-2</t>
-  </si>
-  <si>
-    <t>3,-3</t>
-  </si>
-  <si>
-    <t>4,-4</t>
+    <t>60,60</t>
+  </si>
+  <si>
+    <t>120,120</t>
+  </si>
+  <si>
+    <t>0,60</t>
+  </si>
+  <si>
+    <t>60,0</t>
+  </si>
+  <si>
+    <t>120,0</t>
+  </si>
+  <si>
+    <t>0,120</t>
+  </si>
+  <si>
+    <t>120,60</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1045,7 @@
   <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1059,7 @@
     <col min="15" max="15" width="3.7109375" customWidth="1"/>
     <col min="16" max="17" width="3.28515625" customWidth="1"/>
     <col min="18" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1190,19 +1121,19 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1219,19 +1150,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="11" t="s">
-        <v>123</v>
-      </c>
+      <c r="R5" s="11"/>
       <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1255,17 +1180,11 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
@@ -1291,15 +1210,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -1324,31 +1237,19 @@
         <v>-16</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="T8">
         <v>16</v>
@@ -1364,15 +1265,9 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -1397,13 +1292,9 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
@@ -1427,14 +1318,10 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1460,19 +1347,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">

--- a/doc/Rule.xlsx
+++ b/doc/Rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
   <si>
     <t>Тип поверхности</t>
   </si>
@@ -365,14 +365,41 @@
   </si>
   <si>
     <t>120,60</t>
+  </si>
+  <si>
+    <t>-60,-60</t>
+  </si>
+  <si>
+    <t>60,-60</t>
+  </si>
+  <si>
+    <t>59,59</t>
+  </si>
+  <si>
+    <t>61,61</t>
+  </si>
+  <si>
+    <t>61,59</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -492,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -509,6 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1045,7 +1073,7 @@
   <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1105,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1091,16 +1119,13 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="H3">
@@ -1111,7 +1136,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1137,7 +1162,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1150,13 +1175,17 @@
         <v>3</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="R5" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1170,9 +1199,6 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H6">
@@ -1199,9 +1225,6 @@
         <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H7">
@@ -1210,25 +1233,22 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
+      <c r="A8" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1256,8 +1276,17 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>98</v>
+      <c r="A9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1267,17 +1296,19 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1300,15 +1331,21 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H11">
@@ -1325,27 +1362,6 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
       <c r="K12" s="11" t="s">
         <v>111</v>
       </c>
@@ -1362,11 +1378,6 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O13">
-        <v>-16</v>
-      </c>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
